--- a/biology/Botanique/Sericanthe_lowryana/Sericanthe_lowryana.xlsx
+++ b/biology/Botanique/Sericanthe_lowryana/Sericanthe_lowryana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sericanthe lowryana Sonké &amp; Robbr. est une espèce de plantes de la famille des Rubiaceae et du genre Sericanthe, endémique du Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sericanthe lowryana Sonké &amp; Robbr. est une espèce de plantes de la famille des Rubiaceae et du genre Sericanthe, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique lowryana rend hommage au botaniste Pete Lowry, spécialiste de la flore du Sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique lowryana rend hommage au botaniste Pete Lowry, spécialiste de la flore du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sericanthe lowryana est un petit arbre mesurant environ 10 mètres. Son tronc a une circonférence de 15 cm approximativement. On le trouve dans les forêts tropicales, à 500-600 mètres d’altitude[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sericanthe lowryana est un petit arbre mesurant environ 10 mètres. Son tronc a une circonférence de 15 cm approximativement. On le trouve dans les forêts tropicales, à 500-600 mètres d’altitude.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, relativement rare, l'espèce a été observée sur trois sites dans la Région du Sud[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, relativement rare, l'espèce a été observée sur trois sites dans la Région du Sud.
 </t>
         </is>
       </c>
